--- a/dictionnaire de donee.xlsx
+++ b/dictionnaire de donee.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://arfpasso-my.sharepoint.com/personal/cabiehler_arfp_asso_fr/Documents/Documents/dev/jalon-base-de-donnee/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="171" documentId="8_{56B0D240-0629-4B59-A851-204EE5E33CA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3F68D34-EC66-4C00-AF15-2A8F672DB93D}"/>
+  <xr:revisionPtr revIDLastSave="181" documentId="8_{56B0D240-0629-4B59-A851-204EE5E33CA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC37FC6C-2F88-421F-8D40-921F309DCE4A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{5C3CDFE2-035D-481C-A90A-A17552336294}"/>
+    <workbookView xWindow="-28920" yWindow="-600" windowWidth="29040" windowHeight="15840" xr2:uid="{5C3CDFE2-035D-481C-A90A-A17552336294}"/>
   </bookViews>
   <sheets>
     <sheet name="AgenceVoyage" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="62">
   <si>
     <t>Nom de la colonne</t>
   </si>
@@ -217,6 +217,12 @@
   </si>
   <si>
     <t>Jalon</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>age de reserviste</t>
   </si>
 </sst>
 </file>
@@ -261,7 +267,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -573,46 +579,100 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -621,6 +681,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -639,37 +702,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1010,10 +1064,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA377497-2617-4843-87B0-E5F62663374C}">
-  <dimension ref="C2:N53"/>
+  <dimension ref="C2:N54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:E9"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26:N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1022,835 +1076,844 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
     </row>
     <row r="3" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
     </row>
     <row r="7" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="17"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="23"/>
     </row>
     <row r="8" spans="3:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="18"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="20"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="26"/>
     </row>
     <row r="9" spans="3:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5" t="s">
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5" t="s">
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5" t="s">
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="5"/>
-      <c r="N9" s="9"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="20"/>
     </row>
     <row r="10" spans="3:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5" t="s">
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5" t="s">
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="13" t="s">
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="M10" s="13"/>
-      <c r="N10" s="14"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="19"/>
     </row>
     <row r="11" spans="3:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5" t="s">
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5" t="s">
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5" t="s">
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="M11" s="5"/>
-      <c r="N11" s="9"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="20"/>
     </row>
     <row r="12" spans="3:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="6" t="s">
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="8"/>
-      <c r="I12" s="6" t="s">
+      <c r="I12" s="9" t="s">
         <v>18</v>
       </c>
       <c r="J12" s="7"/>
       <c r="K12" s="8"/>
-      <c r="L12" s="5" t="s">
+      <c r="L12" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="M12" s="5"/>
-      <c r="N12" s="9"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="20"/>
     </row>
     <row r="13" spans="3:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11" t="s">
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11" t="s">
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11" t="s">
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="M13" s="11"/>
-      <c r="N13" s="12"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="31"/>
     </row>
     <row r="14" spans="3:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2" t="s">
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2" t="s">
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2" t="s">
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
     </row>
     <row r="15" spans="3:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1" t="s">
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1" t="s">
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1" t="s">
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
     </row>
     <row r="18" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="17"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="23"/>
     </row>
     <row r="19" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C19" s="18"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="20"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="26"/>
     </row>
     <row r="20" spans="3:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5" t="s">
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5" t="s">
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5" t="s">
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="M20" s="5"/>
-      <c r="N20" s="9"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="20"/>
     </row>
     <row r="21" spans="3:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5" t="s">
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5" t="s">
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="13" t="s">
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="M21" s="13"/>
-      <c r="N21" s="14"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="19"/>
     </row>
     <row r="22" spans="3:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5" t="s">
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5" t="s">
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5" t="s">
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="M22" s="5"/>
-      <c r="N22" s="9"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="20"/>
     </row>
     <row r="23" spans="3:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="6" t="s">
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="9" t="s">
         <v>12</v>
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="8"/>
-      <c r="I23" s="6" t="s">
+      <c r="I23" s="9" t="s">
         <v>30</v>
       </c>
       <c r="J23" s="7"/>
       <c r="K23" s="8"/>
-      <c r="L23" s="5" t="s">
+      <c r="L23" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="M23" s="5"/>
-      <c r="N23" s="9"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="20"/>
     </row>
     <row r="24" spans="3:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11" t="s">
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11" t="s">
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11" t="s">
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="M24" s="11"/>
-      <c r="N24" s="12"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="34"/>
     </row>
     <row r="25" spans="3:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+    </row>
+    <row r="26" spans="3:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-    </row>
-    <row r="26" spans="3:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
+      <c r="F26" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
+      <c r="I26" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
+      <c r="L26" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
     </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C31" s="15" t="s">
+    <row r="27" spans="3:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C32" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="17"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C32" s="18"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="19"/>
-      <c r="N32" s="20"/>
-    </row>
-    <row r="33" spans="3:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="4" t="s">
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="23"/>
+    </row>
+    <row r="33" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C33" s="24"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="25"/>
+      <c r="L33" s="25"/>
+      <c r="M33" s="25"/>
+      <c r="N33" s="26"/>
+    </row>
+    <row r="34" spans="3:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5" t="s">
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5" t="s">
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5" t="s">
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="M33" s="5"/>
-      <c r="N33" s="9"/>
-    </row>
-    <row r="34" spans="3:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="4" t="s">
+      <c r="M34" s="17"/>
+      <c r="N34" s="20"/>
+    </row>
+    <row r="35" spans="3:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C35" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5" t="s">
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5" t="s">
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="13" t="s">
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="M34" s="13"/>
-      <c r="N34" s="14"/>
-    </row>
-    <row r="35" spans="3:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="4" t="s">
+      <c r="M35" s="18"/>
+      <c r="N35" s="19"/>
+    </row>
+    <row r="36" spans="3:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C36" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5" t="s">
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5" t="s">
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5" t="s">
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="M35" s="5"/>
-      <c r="N35" s="9"/>
-    </row>
-    <row r="36" spans="3:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="23" t="s">
+      <c r="M36" s="17"/>
+      <c r="N36" s="20"/>
+    </row>
+    <row r="37" spans="3:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D36" s="7"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="6" t="s">
+      <c r="D37" s="7"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G36" s="7"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="6" t="s">
+      <c r="G37" s="7"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="J36" s="7"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="6" t="s">
+      <c r="J37" s="7"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="M36" s="7"/>
-      <c r="N36" s="24"/>
-    </row>
-    <row r="37" spans="3:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="25" t="s">
+      <c r="M37" s="7"/>
+      <c r="N37" s="10"/>
+    </row>
+    <row r="38" spans="3:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C38" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D37" s="26"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="28" t="s">
+      <c r="D38" s="12"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G37" s="26"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="28" t="s">
+      <c r="G38" s="12"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="J37" s="26"/>
-      <c r="K37" s="27"/>
-      <c r="L37" s="28" t="s">
+      <c r="J38" s="12"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="M37" s="26"/>
-      <c r="N37" s="29"/>
-    </row>
-    <row r="38" spans="3:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="1" t="s">
+      <c r="M38" s="12"/>
+      <c r="N38" s="15"/>
+    </row>
+    <row r="39" spans="3:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C39" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1" t="s">
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="30" t="s">
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J38" s="30"/>
-      <c r="K38" s="30"/>
-      <c r="L38" s="1" t="s">
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-    </row>
-    <row r="39" spans="3:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="31"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="31"/>
-      <c r="K39" s="31"/>
-      <c r="L39" s="31"/>
-      <c r="M39" s="31"/>
-      <c r="N39" s="31"/>
-    </row>
-    <row r="44" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C44" s="15" t="s">
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+    </row>
+    <row r="40" spans="3:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="27"/>
+      <c r="K40" s="27"/>
+      <c r="L40" s="27"/>
+      <c r="M40" s="27"/>
+      <c r="N40" s="27"/>
+    </row>
+    <row r="45" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C45" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="16"/>
-      <c r="J44" s="16"/>
-      <c r="K44" s="16"/>
-      <c r="L44" s="16"/>
-      <c r="M44" s="16"/>
-      <c r="N44" s="17"/>
-    </row>
-    <row r="45" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C45" s="18"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="19"/>
-      <c r="K45" s="19"/>
-      <c r="L45" s="19"/>
-      <c r="M45" s="19"/>
-      <c r="N45" s="20"/>
-    </row>
-    <row r="46" spans="3:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C46" s="4" t="s">
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="22"/>
+      <c r="J45" s="22"/>
+      <c r="K45" s="22"/>
+      <c r="L45" s="22"/>
+      <c r="M45" s="22"/>
+      <c r="N45" s="23"/>
+    </row>
+    <row r="46" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C46" s="24"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="25"/>
+      <c r="J46" s="25"/>
+      <c r="K46" s="25"/>
+      <c r="L46" s="25"/>
+      <c r="M46" s="25"/>
+      <c r="N46" s="26"/>
+    </row>
+    <row r="47" spans="3:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C47" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5" t="s">
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5" t="s">
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
-      <c r="L46" s="5" t="s">
+      <c r="J47" s="17"/>
+      <c r="K47" s="17"/>
+      <c r="L47" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="M46" s="5"/>
-      <c r="N46" s="9"/>
-    </row>
-    <row r="47" spans="3:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C47" s="4" t="s">
+      <c r="M47" s="17"/>
+      <c r="N47" s="20"/>
+    </row>
+    <row r="48" spans="3:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C48" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5" t="s">
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5" t="s">
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="J47" s="5"/>
-      <c r="K47" s="5"/>
-      <c r="L47" s="13" t="s">
+      <c r="J48" s="17"/>
+      <c r="K48" s="17"/>
+      <c r="L48" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="M47" s="13"/>
-      <c r="N47" s="14"/>
-    </row>
-    <row r="48" spans="3:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C48" s="4" t="s">
+      <c r="M48" s="18"/>
+      <c r="N48" s="19"/>
+    </row>
+    <row r="49" spans="3:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C49" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5" t="s">
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5" t="s">
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="J48" s="5"/>
-      <c r="K48" s="5"/>
-      <c r="L48" s="5" t="s">
+      <c r="J49" s="17"/>
+      <c r="K49" s="17"/>
+      <c r="L49" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="M48" s="5"/>
-      <c r="N48" s="9"/>
-    </row>
-    <row r="49" spans="3:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C49" s="23" t="s">
+      <c r="M49" s="17"/>
+      <c r="N49" s="20"/>
+    </row>
+    <row r="50" spans="3:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C50" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D49" s="7"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="6" t="s">
+      <c r="D50" s="7"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G49" s="7"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="6" t="s">
+      <c r="G50" s="7"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="J49" s="7"/>
-      <c r="K49" s="8"/>
-      <c r="L49" s="6" t="s">
+      <c r="J50" s="7"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="M49" s="7"/>
-      <c r="N49" s="24"/>
-    </row>
-    <row r="50" spans="3:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C50" s="25" t="s">
+      <c r="M50" s="7"/>
+      <c r="N50" s="10"/>
+    </row>
+    <row r="51" spans="3:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C51" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D50" s="26"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="28" t="s">
+      <c r="D51" s="12"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="G50" s="26"/>
-      <c r="H50" s="27"/>
-      <c r="I50" s="28" t="s">
+      <c r="G51" s="12"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="J50" s="26"/>
-      <c r="K50" s="27"/>
-      <c r="L50" s="28" t="s">
+      <c r="J51" s="12"/>
+      <c r="K51" s="13"/>
+      <c r="L51" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="M50" s="26"/>
-      <c r="N50" s="29"/>
-    </row>
-    <row r="51" spans="3:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C51" s="2" t="s">
+      <c r="M51" s="12"/>
+      <c r="N51" s="15"/>
+    </row>
+    <row r="52" spans="3:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C52" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2" t="s">
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="22" t="s">
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="J51" s="22"/>
-      <c r="K51" s="22"/>
-      <c r="L51" s="2" t="s">
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
-    </row>
-    <row r="52" spans="3:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C52" s="1" t="s">
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C53" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1" t="s">
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1" t="s">
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="J52" s="1"/>
-      <c r="K52" s="1"/>
-      <c r="L52" s="1"/>
-      <c r="M52" s="1"/>
-      <c r="N52" s="1"/>
-    </row>
-    <row r="53" spans="3:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C53" s="3" t="s">
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+    </row>
+    <row r="54" spans="3:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C54" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="30" t="s">
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="J53" s="30"/>
-      <c r="K53" s="30"/>
-      <c r="L53" s="3"/>
-      <c r="M53" s="3"/>
-      <c r="N53" s="3"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="121">
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:H53"/>
-    <mergeCell ref="I53:K53"/>
-    <mergeCell ref="L53:N53"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:H51"/>
-    <mergeCell ref="I51:K51"/>
-    <mergeCell ref="L51:N51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:H52"/>
-    <mergeCell ref="I52:K52"/>
-    <mergeCell ref="L52:N52"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:H49"/>
-    <mergeCell ref="I49:K49"/>
-    <mergeCell ref="L49:N49"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="L50:N50"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="F47:H47"/>
-    <mergeCell ref="I47:K47"/>
-    <mergeCell ref="L47:N47"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="F48:H48"/>
-    <mergeCell ref="I48:K48"/>
-    <mergeCell ref="L48:N48"/>
-    <mergeCell ref="C44:N45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:H46"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="L46:N46"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="I38:K38"/>
-    <mergeCell ref="L38:N38"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="I39:K39"/>
-    <mergeCell ref="L39:N39"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="L37:N37"/>
+  <mergeCells count="125">
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="C18:N19"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="C32:N33"/>
     <mergeCell ref="C34:E34"/>
     <mergeCell ref="F34:H34"/>
     <mergeCell ref="I34:K34"/>
     <mergeCell ref="L34:N34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="L35:N35"/>
-    <mergeCell ref="C31:N32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="L33:N33"/>
     <mergeCell ref="C2:N3"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="F9:H9"/>
@@ -1870,46 +1933,63 @@
     <mergeCell ref="I10:K10"/>
     <mergeCell ref="L10:N10"/>
     <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="C18:N19"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="L37:N37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="L38:N38"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="L35:N35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="C45:N46"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="L47:N47"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="L39:N39"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="L50:N50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:H51"/>
+    <mergeCell ref="I51:K51"/>
+    <mergeCell ref="L51:N51"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="F48:H48"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="L48:N48"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:H49"/>
+    <mergeCell ref="I49:K49"/>
+    <mergeCell ref="L49:N49"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:H54"/>
+    <mergeCell ref="I54:K54"/>
+    <mergeCell ref="L54:N54"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:H52"/>
+    <mergeCell ref="I52:K52"/>
+    <mergeCell ref="L52:N52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:H53"/>
+    <mergeCell ref="I53:K53"/>
+    <mergeCell ref="L53:N53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1926,223 +2006,233 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="17"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="23"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="18"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="20"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="26"/>
     </row>
     <row r="9" spans="2:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5" t="s">
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5" t="s">
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5" t="s">
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="5"/>
-      <c r="M9" s="9"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="20"/>
     </row>
     <row r="10" spans="2:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5" t="s">
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5" t="s">
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="13" t="s">
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="L10" s="13"/>
-      <c r="M10" s="14"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="19"/>
     </row>
     <row r="11" spans="2:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5" t="s">
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5" t="s">
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5" t="s">
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="L11" s="5"/>
-      <c r="M11" s="9"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="20"/>
     </row>
     <row r="12" spans="2:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="8"/>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="9" t="s">
         <v>12</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="8"/>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I12" s="7"/>
       <c r="J12" s="8"/>
-      <c r="K12" s="6" t="s">
+      <c r="K12" s="9" t="s">
         <v>15</v>
       </c>
       <c r="L12" s="7"/>
-      <c r="M12" s="24"/>
+      <c r="M12" s="10"/>
     </row>
     <row r="13" spans="2:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="28" t="s">
+      <c r="C13" s="12"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="26"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="28" t="s">
+      <c r="F13" s="12"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="I13" s="26"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="28" t="s">
+      <c r="I13" s="12"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="L13" s="26"/>
-      <c r="M13" s="29"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="15"/>
     </row>
     <row r="14" spans="2:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2" t="s">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="22" t="s">
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="2" t="s">
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
     </row>
     <row r="15" spans="2:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1" t="s">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1" t="s">
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B2:M3"/>
-    <mergeCell ref="B7:M8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="K13:M13"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="E10:G10"/>
     <mergeCell ref="H10:J10"/>
@@ -2151,22 +2241,12 @@
     <mergeCell ref="E11:G11"/>
     <mergeCell ref="H11:J11"/>
     <mergeCell ref="K11:M11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="B2:M3"/>
+    <mergeCell ref="B7:M8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:M9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dictionnaire de donee.xlsx
+++ b/dictionnaire de donee.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://arfpasso-my.sharepoint.com/personal/cabiehler_arfp_asso_fr/Documents/Documents/dev/jalon-base-de-donnee/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="181" documentId="8_{56B0D240-0629-4B59-A851-204EE5E33CA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC37FC6C-2F88-421F-8D40-921F309DCE4A}"/>
+  <xr:revisionPtr revIDLastSave="185" documentId="8_{56B0D240-0629-4B59-A851-204EE5E33CA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DBC2F46D-DE9D-4985-A45E-1A700DDED2CE}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-600" windowWidth="29040" windowHeight="15840" xr2:uid="{5C3CDFE2-035D-481C-A90A-A17552336294}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="66">
   <si>
     <t>Nom de la colonne</t>
   </si>
@@ -223,6 +223,18 @@
   </si>
   <si>
     <t>age de reserviste</t>
+  </si>
+  <si>
+    <t>CompteBancaire</t>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+  </si>
+  <si>
+    <t>proprietaire</t>
   </si>
 </sst>
 </file>
@@ -624,107 +636,107 @@
   </cellStyleXfs>
   <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1066,8 +1078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA377497-2617-4843-87B0-E5F62663374C}">
   <dimension ref="C2:N54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26:N26"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48:H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1076,804 +1088,889 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
     </row>
     <row r="3" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
     </row>
     <row r="7" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="23"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="20"/>
     </row>
     <row r="8" spans="3:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="24"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="26"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="23"/>
     </row>
     <row r="9" spans="3:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17" t="s">
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17" t="s">
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17" t="s">
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="17"/>
-      <c r="N9" s="20"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="5"/>
     </row>
     <row r="10" spans="3:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17" t="s">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17" t="s">
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="18" t="s">
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M10" s="18"/>
-      <c r="N10" s="19"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="4"/>
     </row>
     <row r="11" spans="3:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17" t="s">
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17" t="s">
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17" t="s">
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M11" s="17"/>
-      <c r="N11" s="20"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="5"/>
     </row>
     <row r="12" spans="3:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="9" t="s">
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="9" t="s">
+      <c r="G12" s="8"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J12" s="7"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="17" t="s">
+      <c r="J12" s="8"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M12" s="17"/>
-      <c r="N12" s="20"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="5"/>
     </row>
     <row r="13" spans="3:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30" t="s">
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30" t="s">
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30" t="s">
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="M13" s="30"/>
-      <c r="N13" s="31"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="17"/>
     </row>
     <row r="14" spans="3:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3" t="s">
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3" t="s">
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3" t="s">
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
     </row>
     <row r="15" spans="3:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5" t="s">
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5" t="s">
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5" t="s">
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
     </row>
     <row r="18" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="23"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="20"/>
     </row>
     <row r="19" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C19" s="24"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="26"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="23"/>
     </row>
     <row r="20" spans="3:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17" t="s">
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17" t="s">
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17" t="s">
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M20" s="17"/>
-      <c r="N20" s="20"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="5"/>
     </row>
     <row r="21" spans="3:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17" t="s">
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17" t="s">
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="18" t="s">
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M21" s="18"/>
-      <c r="N21" s="19"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="4"/>
     </row>
     <row r="22" spans="3:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17" t="s">
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17" t="s">
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17" t="s">
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="M22" s="17"/>
-      <c r="N22" s="20"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="5"/>
     </row>
     <row r="23" spans="3:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="9" t="s">
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="9" t="s">
+      <c r="G23" s="8"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J23" s="7"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="17" t="s">
+      <c r="J23" s="8"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="M23" s="17"/>
-      <c r="N23" s="20"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="5"/>
     </row>
     <row r="24" spans="3:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="32" t="s">
+      <c r="C24" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33" t="s">
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33" t="s">
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33" t="s">
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="M24" s="33"/>
-      <c r="N24" s="34"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="12"/>
     </row>
     <row r="25" spans="3:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17" t="s">
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17" t="s">
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17" t="s">
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
     </row>
     <row r="26" spans="3:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3" t="s">
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3" t="s">
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3" t="s">
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
     </row>
     <row r="27" spans="3:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
     </row>
     <row r="32" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C32" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="22"/>
-      <c r="M32" s="22"/>
-      <c r="N32" s="23"/>
+      <c r="C32" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="20"/>
     </row>
     <row r="33" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C33" s="24"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="25"/>
-      <c r="L33" s="25"/>
-      <c r="M33" s="25"/>
-      <c r="N33" s="26"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="23"/>
     </row>
     <row r="34" spans="3:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="16" t="s">
+      <c r="C34" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17" t="s">
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17" t="s">
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17" t="s">
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M34" s="17"/>
-      <c r="N34" s="20"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="5"/>
     </row>
     <row r="35" spans="3:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="16" t="s">
+      <c r="C35" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17" t="s">
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17" t="s">
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="18" t="s">
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M35" s="18"/>
-      <c r="N35" s="19"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="4"/>
     </row>
     <row r="36" spans="3:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="16" t="s">
+      <c r="C36" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17" t="s">
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M36" s="2"/>
+      <c r="N36" s="5"/>
+    </row>
+    <row r="37" spans="3:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G37" s="8"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J37" s="8"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M37" s="8"/>
+      <c r="N37" s="26"/>
+    </row>
+    <row r="38" spans="3:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C38" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D38" s="28"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" s="28"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="J38" s="28"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="M38" s="28"/>
+      <c r="N38" s="31"/>
+    </row>
+    <row r="39" spans="3:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C39" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="J39" s="32"/>
+      <c r="K39" s="32"/>
+      <c r="L39" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="M39" s="14"/>
+      <c r="N39" s="14"/>
+    </row>
+    <row r="40" spans="3:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="33"/>
+      <c r="J40" s="33"/>
+      <c r="K40" s="33"/>
+      <c r="L40" s="33"/>
+      <c r="M40" s="33"/>
+      <c r="N40" s="33"/>
+    </row>
+    <row r="45" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C45" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="19"/>
+      <c r="K45" s="19"/>
+      <c r="L45" s="19"/>
+      <c r="M45" s="19"/>
+      <c r="N45" s="20"/>
+    </row>
+    <row r="46" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C46" s="21"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="22"/>
+      <c r="I46" s="22"/>
+      <c r="J46" s="22"/>
+      <c r="K46" s="22"/>
+      <c r="L46" s="22"/>
+      <c r="M46" s="22"/>
+      <c r="N46" s="23"/>
+    </row>
+    <row r="47" spans="3:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" s="5"/>
+    </row>
+    <row r="48" spans="3:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C48" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M48" s="3"/>
+      <c r="N48" s="4"/>
+    </row>
+    <row r="49" spans="3:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C49" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="M36" s="17"/>
-      <c r="N36" s="20"/>
-    </row>
-    <row r="37" spans="3:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D37" s="7"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="9" t="s">
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" s="5"/>
+    </row>
+    <row r="50" spans="3:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C50" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G37" s="7"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="J37" s="7"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="9" t="s">
+      <c r="G50" s="8"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J50" s="8"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="M37" s="7"/>
-      <c r="N37" s="10"/>
-    </row>
-    <row r="38" spans="3:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D38" s="12"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" s="12"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="J38" s="12"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="14" t="s">
+      <c r="M50" s="8"/>
+      <c r="N50" s="26"/>
+    </row>
+    <row r="51" spans="3:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C51" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D51" s="28"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="G51" s="28"/>
+      <c r="H51" s="29"/>
+      <c r="I51" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="J51" s="28"/>
+      <c r="K51" s="29"/>
+      <c r="L51" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="M38" s="12"/>
-      <c r="N38" s="15"/>
-    </row>
-    <row r="39" spans="3:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="5" t="s">
+      <c r="M51" s="28"/>
+      <c r="N51" s="31"/>
+    </row>
+    <row r="52" spans="3:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C52" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G52" s="13"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="J52" s="34"/>
+      <c r="K52" s="34"/>
+      <c r="L52" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="M39" s="5"/>
-      <c r="N39" s="5"/>
-    </row>
-    <row r="40" spans="3:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="27"/>
-      <c r="J40" s="27"/>
-      <c r="K40" s="27"/>
-      <c r="L40" s="27"/>
-      <c r="M40" s="27"/>
-      <c r="N40" s="27"/>
-    </row>
-    <row r="45" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C45" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="22"/>
-      <c r="I45" s="22"/>
-      <c r="J45" s="22"/>
-      <c r="K45" s="22"/>
-      <c r="L45" s="22"/>
-      <c r="M45" s="22"/>
-      <c r="N45" s="23"/>
-    </row>
-    <row r="46" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C46" s="24"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="25"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="25"/>
-      <c r="I46" s="25"/>
-      <c r="J46" s="25"/>
-      <c r="K46" s="25"/>
-      <c r="L46" s="25"/>
-      <c r="M46" s="25"/>
-      <c r="N46" s="26"/>
-    </row>
-    <row r="47" spans="3:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C47" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="J47" s="17"/>
-      <c r="K47" s="17"/>
-      <c r="L47" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="M47" s="17"/>
-      <c r="N47" s="20"/>
-    </row>
-    <row r="48" spans="3:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C48" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17" t="s">
+      <c r="M52" s="13"/>
+      <c r="N52" s="13"/>
+    </row>
+    <row r="53" spans="3:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C53" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="J48" s="17"/>
-      <c r="K48" s="17"/>
-      <c r="L48" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="M48" s="18"/>
-      <c r="N48" s="19"/>
-    </row>
-    <row r="49" spans="3:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C49" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="J49" s="17"/>
-      <c r="K49" s="17"/>
-      <c r="L49" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="M49" s="17"/>
-      <c r="N49" s="20"/>
-    </row>
-    <row r="50" spans="3:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C50" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D50" s="7"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G50" s="7"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="J50" s="7"/>
-      <c r="K50" s="8"/>
-      <c r="L50" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="M50" s="7"/>
-      <c r="N50" s="10"/>
-    </row>
-    <row r="51" spans="3:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C51" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D51" s="12"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="G51" s="12"/>
-      <c r="H51" s="13"/>
-      <c r="I51" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="J51" s="12"/>
-      <c r="K51" s="13"/>
-      <c r="L51" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="M51" s="12"/>
-      <c r="N51" s="15"/>
-    </row>
-    <row r="52" spans="3:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C52" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="J52" s="4"/>
-      <c r="K52" s="4"/>
-      <c r="L52" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M52" s="3"/>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C53" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5" t="s">
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="J53" s="5"/>
-      <c r="K53" s="5"/>
-      <c r="L53" s="5"/>
-      <c r="M53" s="5"/>
-      <c r="N53" s="5"/>
+      <c r="J53" s="14"/>
+      <c r="K53" s="14"/>
+      <c r="L53" s="14"/>
+      <c r="M53" s="14"/>
+      <c r="N53" s="14"/>
     </row>
     <row r="54" spans="3:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="2" t="s">
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="J54" s="2"/>
-      <c r="K54" s="2"/>
-      <c r="L54" s="1"/>
-      <c r="M54" s="1"/>
-      <c r="N54" s="1"/>
+      <c r="J54" s="32"/>
+      <c r="K54" s="32"/>
+      <c r="L54" s="6"/>
+      <c r="M54" s="6"/>
+      <c r="N54" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="125">
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:H54"/>
+    <mergeCell ref="I54:K54"/>
+    <mergeCell ref="L54:N54"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:H52"/>
+    <mergeCell ref="I52:K52"/>
+    <mergeCell ref="L52:N52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:H53"/>
+    <mergeCell ref="I53:K53"/>
+    <mergeCell ref="L53:N53"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="L50:N50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:H51"/>
+    <mergeCell ref="I51:K51"/>
+    <mergeCell ref="L51:N51"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="F48:H48"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="L48:N48"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:H49"/>
+    <mergeCell ref="I49:K49"/>
+    <mergeCell ref="L49:N49"/>
+    <mergeCell ref="C45:N46"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="L47:N47"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="L39:N39"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="L37:N37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="L38:N38"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="L35:N35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="C2:N3"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="C7:N8"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="C18:N19"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="C32:N33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="L14:N14"/>
     <mergeCell ref="C27:E27"/>
     <mergeCell ref="F27:H27"/>
     <mergeCell ref="I27:K27"/>
@@ -1894,102 +1991,17 @@
     <mergeCell ref="F25:H25"/>
     <mergeCell ref="I25:K25"/>
     <mergeCell ref="L25:N25"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="C20:E20"/>
     <mergeCell ref="I20:K20"/>
     <mergeCell ref="L20:N20"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="C18:N19"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="C32:N33"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="C2:N3"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="C7:N8"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="L37:N37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="I38:K38"/>
-    <mergeCell ref="L38:N38"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="L35:N35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="C45:N46"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="F47:H47"/>
-    <mergeCell ref="I47:K47"/>
-    <mergeCell ref="L47:N47"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="I39:K39"/>
-    <mergeCell ref="L39:N39"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="I40:K40"/>
-    <mergeCell ref="L40:N40"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="L50:N50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:H51"/>
-    <mergeCell ref="I51:K51"/>
-    <mergeCell ref="L51:N51"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="F48:H48"/>
-    <mergeCell ref="I48:K48"/>
-    <mergeCell ref="L48:N48"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:H49"/>
-    <mergeCell ref="I49:K49"/>
-    <mergeCell ref="L49:N49"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:H54"/>
-    <mergeCell ref="I54:K54"/>
-    <mergeCell ref="L54:N54"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:H52"/>
-    <mergeCell ref="I52:K52"/>
-    <mergeCell ref="L52:N52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:H53"/>
-    <mergeCell ref="I53:K53"/>
-    <mergeCell ref="L53:N53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2006,217 +2018,239 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="23"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="20"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="24"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="26"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="23"/>
     </row>
     <row r="9" spans="2:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17" t="s">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17" t="s">
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17" t="s">
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="20"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="5"/>
     </row>
     <row r="10" spans="2:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17" t="s">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17" t="s">
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="18" t="s">
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L10" s="18"/>
-      <c r="M10" s="19"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="4"/>
     </row>
     <row r="11" spans="2:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17" t="s">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17" t="s">
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17" t="s">
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L11" s="17"/>
-      <c r="M11" s="20"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="5"/>
     </row>
     <row r="12" spans="2:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="9" t="s">
+      <c r="C12" s="8"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="9" t="s">
+      <c r="F12" s="8"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="I12" s="7"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="9" t="s">
+      <c r="I12" s="8"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L12" s="7"/>
-      <c r="M12" s="10"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="26"/>
     </row>
     <row r="13" spans="2:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="14" t="s">
+      <c r="C13" s="28"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="14" t="s">
+      <c r="F13" s="28"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="I13" s="12"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="14" t="s">
+      <c r="I13" s="28"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="L13" s="12"/>
-      <c r="M13" s="15"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="31"/>
     </row>
     <row r="14" spans="2:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3" t="s">
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="4" t="s">
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="3" t="s">
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
     </row>
     <row r="15" spans="2:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5" t="s">
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5" t="s">
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B2:M3"/>
+    <mergeCell ref="B7:M8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="K13:M13"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="E14:G14"/>
     <mergeCell ref="H14:J14"/>
@@ -2225,28 +2259,6 @@
     <mergeCell ref="E15:G15"/>
     <mergeCell ref="H15:J15"/>
     <mergeCell ref="K15:M15"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="B2:M3"/>
-    <mergeCell ref="B7:M8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="K9:M9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
